--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:BA32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>TypeID</t>
   </si>
@@ -993,6 +993,22 @@
   </si>
   <si>
     <t>90,115,140,165</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS风暴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,300,400,500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1367,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA32"/>
+  <dimension ref="A1:BA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3654,6 +3670,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -353,8 +353,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//技能冷却时间 为施法间隔
--1表示当前单位的攻击时间间隔</t>
+//初始生效冷却时间</t>
         </r>
       </text>
     </comment>
@@ -380,7 +379,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//技能伤害</t>
+//技能冷却时间 为施法间隔
+-1表示当前单位的攻击时间间隔</t>
         </r>
       </text>
     </comment>
@@ -406,7 +406,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害值类型 0表示固定值 1表示目标受到总伤害比列的一定比列 2:最大血量百分比</t>
+//技能伤害</t>
         </r>
       </text>
     </comment>
@@ -432,7 +432,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//光环范围 小于等于0表示无效</t>
+//伤害值类型 0表示固定值 1表示目标受到总伤害比列的一定比列 2:最大血量百分比</t>
         </r>
       </text>
     </comment>
@@ -458,7 +458,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//附带普通攻击百分比 (0.5 为 50%的普通攻击伤害) 一般为0</t>
+//光环范围 小于等于0表示无效</t>
         </r>
       </text>
     </comment>
@@ -484,7 +484,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//跟随主角  1:是 2:否</t>
+//附带普通攻击百分比 (0.5 为 50%的普通攻击伤害) 一般为0</t>
         </r>
       </text>
     </comment>
@@ -510,7 +510,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//光环模型</t>
+//跟随主角  1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -536,7 +536,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否瞬间移动到目的地 1:是 2:否</t>
+//光环模型</t>
         </r>
       </text>
     </comment>
@@ -562,7 +562,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//击杀其他单位后失效 1:是 2:否</t>
+//是否瞬间移动到目的地 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -588,7 +588,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//造成伤害后失效 1:是 2:否</t>
+//击杀其他单位后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -614,11 +614,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//特殊情况处理 1 小小的山崩 对投掷状态的单位造成3倍伤害</t>
+//造成伤害后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
     <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理 1 小小的山崩 对投掷状态的单位造成3倍伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -649,7 +675,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
   <si>
     <t>TypeID</t>
   </si>
@@ -1009,6 +1035,10 @@
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitCooldown</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1383,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA33"/>
+  <dimension ref="A1:BB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1395,13 +1425,14 @@
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.25" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
+    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.25" customWidth="1"/>
+    <col min="18" max="18" width="16.75" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1442,42 +1473,44 @@
         <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -1505,8 +1538,9 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
       <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1544,37 +1578,39 @@
         <v>25</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="3"/>
+      <c r="Z2" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -1602,8 +1638,9 @@
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1641,26 +1678,26 @@
         <v>0.8</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>5</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
         <v>1001</v>
       </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
       <c r="V3">
         <v>2</v>
       </c>
@@ -1668,13 +1705,16 @@
         <v>2</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1712,37 +1752,40 @@
         <v>-1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>6</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="T4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1780,22 +1823,22 @@
         <v>0.8</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>5</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
       </c>
       <c r="V5">
         <v>2</v>
@@ -1804,13 +1847,16 @@
         <v>2</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1848,26 +1894,26 @@
         <v>0.05</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>4.25</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
         <v>1004</v>
       </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
       <c r="V6">
         <v>2</v>
       </c>
@@ -1875,13 +1921,16 @@
         <v>2</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1919,21 +1968,21 @@
         <v>0.05</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>4.25</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>2</v>
       </c>
       <c r="V7">
@@ -1943,13 +1992,16 @@
         <v>2</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1989,27 +2041,27 @@
       <c r="N8">
         <v>3</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>6</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
         <v>1006</v>
       </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
       <c r="V8">
         <v>2</v>
       </c>
@@ -2017,13 +2069,16 @@
         <v>2</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -2060,23 +2115,23 @@
       <c r="N9">
         <v>0.1</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>3</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
       </c>
       <c r="V9">
         <v>2</v>
@@ -2085,13 +2140,16 @@
         <v>2</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -2129,26 +2187,26 @@
         <v>0.15</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>41</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
         <v>1008</v>
       </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
       <c r="V10">
         <v>2</v>
       </c>
@@ -2156,13 +2214,16 @@
         <v>2</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -2199,27 +2260,27 @@
       <c r="N11">
         <v>0.3</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11">
+        <v>0.3</v>
+      </c>
+      <c r="P11" t="s">
         <v>43</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
         <v>44</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
         <v>1009</v>
       </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
       <c r="V11">
         <v>2</v>
       </c>
@@ -2227,13 +2288,16 @@
         <v>2</v>
       </c>
       <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -2270,23 +2334,23 @@
       <c r="N12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>2.75</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
       </c>
       <c r="V12">
         <v>2</v>
@@ -2295,13 +2359,16 @@
         <v>2</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -2339,22 +2406,22 @@
         <v>0.05</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>3.25</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
       </c>
       <c r="V13">
         <v>2</v>
@@ -2363,13 +2430,16 @@
         <v>2</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -2407,22 +2477,22 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>10</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
       </c>
       <c r="V14">
         <v>2</v>
@@ -2431,13 +2501,16 @@
         <v>2</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -2475,21 +2548,21 @@
         <v>0.2</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>1.5</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>2</v>
       </c>
       <c r="V15">
@@ -2499,13 +2572,16 @@
         <v>2</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -2543,26 +2619,26 @@
         <v>0.2</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>1.5</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>1014</v>
       </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
       <c r="V16">
         <v>2</v>
       </c>
@@ -2570,13 +2646,16 @@
         <v>2</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -2608,32 +2687,32 @@
         <v>50</v>
       </c>
       <c r="M17">
-        <v>20.9</v>
+        <v>10</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>4.5</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
         <v>1015</v>
       </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
       <c r="V17">
         <v>2</v>
       </c>
@@ -2641,13 +2720,16 @@
         <v>2</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -2685,37 +2767,40 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>15</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -2753,22 +2838,22 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>10</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
       <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
       </c>
       <c r="V19">
         <v>2</v>
@@ -2777,13 +2862,16 @@
         <v>2</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -2821,22 +2909,22 @@
         <v>0.3</v>
       </c>
       <c r="O20">
+        <v>0.3</v>
+      </c>
+      <c r="P20">
         <v>300</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
       <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>6.75</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
       <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
       </c>
       <c r="V20">
         <v>2</v>
@@ -2845,13 +2933,16 @@
         <v>2</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -2888,27 +2979,27 @@
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
         <v>65</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
       <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>3.8</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
       <c r="S21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
         <v>1019</v>
       </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
       <c r="V21">
         <v>2</v>
       </c>
@@ -2916,13 +3007,16 @@
         <v>2</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -2959,41 +3053,44 @@
       <c r="N22">
         <v>1</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
       <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>2.6</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
       <c r="S22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1020</v>
       </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
       <c r="V22">
         <v>2</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -3030,23 +3127,23 @@
       <c r="N23">
         <v>0.1</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23">
+        <v>0.1</v>
+      </c>
+      <c r="P23" t="s">
         <v>71</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
       <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>3</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
       </c>
       <c r="V23">
         <v>2</v>
@@ -3055,13 +3152,16 @@
         <v>2</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -3099,22 +3199,22 @@
         <v>0.05</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>7.5</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
       <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
       </c>
       <c r="V24">
         <v>2</v>
@@ -3123,13 +3223,16 @@
         <v>2</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -3163,23 +3266,23 @@
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
         <v>77</v>
       </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
       <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
         <v>5</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
       <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
       </c>
       <c r="V25">
         <v>2</v>
@@ -3188,13 +3291,16 @@
         <v>2</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -3229,7 +3335,7 @@
         <v>10000000</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3241,14 +3347,14 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
         <v>1024</v>
       </c>
-      <c r="U26">
-        <v>2</v>
-      </c>
       <c r="V26">
         <v>2</v>
       </c>
@@ -3256,13 +3362,16 @@
         <v>2</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -3300,22 +3409,22 @@
         <v>1.8</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>12</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
       <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
       </c>
       <c r="V27">
         <v>2</v>
@@ -3324,13 +3433,16 @@
         <v>2</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -3368,22 +3480,22 @@
         <v>1.8</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <v>12</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
       <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
       </c>
       <c r="V28">
         <v>2</v>
@@ -3392,13 +3504,16 @@
         <v>2</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -3436,22 +3551,22 @@
         <v>1.8</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>12</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
       <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
       </c>
       <c r="V29">
         <v>2</v>
@@ -3460,13 +3575,16 @@
         <v>2</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -3504,22 +3622,22 @@
         <v>1.8</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>12</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
       <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
       </c>
       <c r="V30">
         <v>2</v>
@@ -3528,13 +3646,16 @@
         <v>2</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -3572,22 +3693,22 @@
         <v>1.8</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <v>12</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
       <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
       </c>
       <c r="V31">
         <v>2</v>
@@ -3596,13 +3717,16 @@
         <v>2</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -3640,22 +3764,22 @@
         <v>1.8</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
         <v>12</v>
       </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
       <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
       </c>
       <c r="V32">
         <v>2</v>
@@ -3664,13 +3788,16 @@
         <v>2</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>92</v>
       </c>
@@ -3708,24 +3835,24 @@
         <v>25</v>
       </c>
       <c r="O33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="U33" s="3"/>
       <c r="V33" s="3" t="s">
         <v>4</v>
       </c>
@@ -3733,9 +3860,12 @@
         <v>4</v>
       </c>
       <c r="X33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Y33" s="3" t="s">
+      <c r="Z33" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1416,7 +1416,7 @@
   <dimension ref="A1:BB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
